--- a/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
@@ -522,6 +522,9 @@
       <c r="C11" t="str">
         <v>577_腊梅白_wax white_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -583,7 +586,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>058810310202050</v>
+        <v>058810310202055</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,9 +526,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>579_腊梅红_wax red_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2</v>
+      </c>
+      <c r="C17" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -586,7 +666,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>058810310202055</v>
+        <v>0588103102020555851031215650</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
@@ -605,6 +605,9 @@
       <c r="C21" t="str">
         <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -666,7 +669,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0588103102020555851031215650</v>
+        <v>0588103102020555851031215655</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -609,9 +609,93 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>3</v>
+      </c>
+      <c r="C25" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F28" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>4</v>
+      </c>
+      <c r="C29" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>371_红朱蕉_Cordyline red_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -669,7 +753,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0588103102020555851031215655</v>
+        <v>0588103102020555851031215655555171010151050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
@@ -692,6 +692,9 @@
       <c r="C31" t="str">
         <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -753,7 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0588103102020555851031215655555171010151050</v>
+        <v>0588103102020555851031215655555171010151055</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -696,9 +696,87 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">350_千层金红_Melaleuca bracteata
+（dyed red）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>305_彩星 宝蓝_Tinted Gypso blue_undefined_0.5kg</v>
+      </c>
+      <c r="F37" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>301_彩星 红_Tinted Gypso Red_ gypsophila_0.5kg</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F39" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>303_彩星 粉_Tinted Gypso pink_undefined_0.5kg</v>
+      </c>
+      <c r="F40" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -756,7 +834,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0588103102020555851031215655555171010151055</v>
+        <v>05881031020205558510312156555551710101510555101010104010440</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
@@ -773,6 +773,9 @@
       <c r="A41" t="str">
         <v>5</v>
       </c>
+      <c r="C41" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
@@ -776,6 +776,9 @@
       <c r="C41" t="str">
         <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -837,7 +840,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05881031020205558510312156555551710101510555101010104010440</v>
+        <v>058810310202055585103121565555517101015105551010101040104412</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -780,9 +780,86 @@
         <v>12</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>630_吸色康乃馨天蓝_tinted tiffany blue_undefined_20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F50" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -840,7 +917,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>058810310202055585103121565555517101015105551010101040104412</v>
+        <v>058810310202055585103121565555517101015105551010101040104412575551855150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
@@ -856,6 +856,9 @@
       <c r="A51" t="str">
         <v>6</v>
       </c>
+      <c r="C51" t="str">
+        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
@@ -859,6 +859,9 @@
       <c r="C51" t="str">
         <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F51" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -920,7 +923,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>058810310202055585103121565555517101015105551010101040104412575551855150</v>
+        <v>058810310202055585103121565555517101015105551010101040104412575551855156</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -863,9 +863,84 @@
         <v>6</v>
       </c>
     </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>669_大丽花 红_undefined_undefined_5stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>668_大丽花 粉_undefined_undefined_5stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>115_绣球冰淇淋绿_Hydrangea Pointed Green_Hydrangea L._1stem</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>7</v>
+      </c>
+      <c r="C58" t="str">
+        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F60" t="str">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L60"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -923,7 +998,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>058810310202055585103121565555517101015105551010101040104412575551855156</v>
+        <v>058810310202055585103121565555517101015105551010101040104412575551855156105555518813</v>
       </c>
     </row>
   </sheetData>
